--- a/Assets/Development/TestFiles/Dates.xlsx
+++ b/Assets/Development/TestFiles/Dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataSets\RichardProctor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APLProjects\XL2APL\Assets\Development\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD696626-EBF0-4518-B524-14C5CDDB0B5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE03371-F3DF-475C-9CA0-86EC743ECEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{1BB2A4E5-B603-48B1-87DF-F971131B1CFB}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="16920" windowHeight="10540" xr2:uid="{1BB2A4E5-B603-48B1-87DF-F971131B1CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Adate</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>111222333444</t>
+  </si>
+  <si>
+    <t>LastDate</t>
+  </si>
+  <si>
+    <t>LastDate2</t>
+  </si>
+  <si>
+    <t>LastDate3</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000;[Red]#,##0.000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000;[Red]#,##0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,16 +120,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,22 +445,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EA8D3B-F3E5-48C7-A12F-B67EA5F62953}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.796875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.86328125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +478,17 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -477,8 +504,12 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>43830</v>
       </c>
@@ -494,8 +525,12 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>72870</v>
       </c>
@@ -510,6 +545,15 @@
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45291</v>
+      </c>
+      <c r="G4" s="2">
+        <v>37000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>36525</v>
       </c>
     </row>
   </sheetData>
